--- a/design_Doc/Parameter table/card_Library 卡牌库.xlsx
+++ b/design_Doc/Parameter table/card_Library 卡牌库.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A6B6B9-A560-46D8-A41B-937EBF460987}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="card_Library" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,10 +57,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>force_Condition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>force_Object</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,14 +66,98 @@
   </si>
   <si>
     <t>card_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说呢！你说呢！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forceCondition_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变牌怪ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变牌目标ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PNG文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monster_Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exCard_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png_Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card02</t>
+  </si>
+  <si>
+    <t>card03</t>
+  </si>
+  <si>
+    <t>card04</t>
+  </si>
+  <si>
+    <t>card05</t>
+  </si>
+  <si>
+    <t>card06</t>
+  </si>
+  <si>
+    <t>card07</t>
+  </si>
+  <si>
+    <t>你说呢1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你说呢2</t>
+  </si>
+  <si>
+    <t>你说呢3</t>
+  </si>
+  <si>
+    <t>你说呢4</t>
+  </si>
+  <si>
+    <t>你说呢5</t>
+  </si>
+  <si>
+    <t>你说呢6</t>
+  </si>
+  <si>
+    <t>你说呢7</t>
+  </si>
+  <si>
+    <t>player</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,11 +206,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -173,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,9 +292,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,6 +344,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -414,24 +537,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11.75" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" customWidth="1"/>
-    <col min="5" max="5" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,10 +579,19 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -468,44 +603,252 @@
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>-3</v>
+      </c>
+      <c r="H3">
+        <v>402</v>
+      </c>
+      <c r="I3">
+        <v>105</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2002</v>
+      </c>
+      <c r="F4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>-2</v>
+      </c>
+      <c r="H4">
+        <v>402</v>
+      </c>
+      <c r="I4">
+        <v>104</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2003</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+      <c r="H5">
+        <v>402</v>
+      </c>
+      <c r="I5">
+        <v>107</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>401</v>
+      </c>
+      <c r="I6">
+        <v>102</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>401</v>
+      </c>
+      <c r="I7">
+        <v>101</v>
+      </c>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2101</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>401</v>
+      </c>
+      <c r="I8">
+        <v>103</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>2102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>401</v>
+      </c>
+      <c r="I9">
+        <v>106</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I3:I9">
+    <sortCondition descending="1" ref="I9"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
